--- a/Vaccination_4_regions.xlsx
+++ b/Vaccination_4_regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.b.ossi\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E280BC4-C0D0-4C02-B753-7C72568249CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367BAE03-50B1-4723-996D-6428D5A745C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Region</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>NOAM</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +144,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,6 +576,23 @@
         <v>0.31107440788469209</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6">
+        <f>SUM(B2:B5)</f>
+        <v>520816194</v>
+      </c>
+      <c r="C6" s="7">
+        <f>SUM(C2:C5)</f>
+        <v>7757268357</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM(D2:D5)</f>
+        <v>0.51447226556967396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vaccination_4_regions.xlsx
+++ b/Vaccination_4_regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.b.ossi\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367BAE03-50B1-4723-996D-6428D5A745C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E755FE56-0AF7-492F-935F-F835FA5CCD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>NOAM</t>
   </si>
   <si>
-    <t>Total</t>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
@@ -132,24 +132,28 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,96 +506,153 @@
     <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>184940823</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="7">
+        <v>334795720</v>
+      </c>
+      <c r="C2" s="7">
         <v>4446069143</v>
       </c>
       <c r="D2" s="4">
-        <f>B2/C2</f>
-        <v>4.159647928354316E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+        <v>7.5301509992733828E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>102597276</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="7">
+        <v>148969083</v>
+      </c>
+      <c r="C3" s="7">
         <v>2292807221</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="0">B3/C3</f>
-        <v>4.4747449790066757E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+        <v>6.4972354254461767E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>50386754</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="7">
+        <v>80344017</v>
+      </c>
+      <c r="C4" s="7">
         <v>430457607</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.11705392861137194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+        <v>0.18664792001224872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>182891341</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="7">
+        <v>204497807</v>
+      </c>
+      <c r="C5" s="7">
         <v>587934386</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.31107440788469209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.34782419921259716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
-        <f>SUM(B2:B5)</f>
-        <v>520816194</v>
-      </c>
-      <c r="C6" s="7">
-        <f>SUM(C2:C5)</f>
+      <c r="B6" s="8">
+        <v>768606627</v>
+      </c>
+      <c r="C6" s="8">
         <v>7757268357</v>
       </c>
-      <c r="D6" s="8">
-        <f>SUM(D2:D5)</f>
-        <v>0.51447226556967396</v>
-      </c>
+      <c r="D6" s="6">
+        <v>9.9082124225652851E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
